--- a/Files/Tables/Decorations/Standard/Standard Decorations.xlsx
+++ b/Files/Tables/Decorations/Standard/Standard Decorations.xlsx
@@ -55,7 +55,7 @@
     </r>
   </si>
   <si>
-    <t>BONUSES</t>
+    <t>BONUS(ES)</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H15:I16"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,6 +479,7 @@
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
